--- a/Spreadsheet (data).xlsx
+++ b/Spreadsheet (data).xlsx
@@ -166,7 +166,7 @@
     <row r="4">
       <c t="str" s="1" r="A4">
         <f>JOIN(":", RANDBETWEEN(10,13),RANDBETWEEN(0,60))</f>
-        <v>10:1</v>
+        <v>11:23</v>
       </c>
       <c t="s" s="1" r="B4">
         <v>6</v>
